--- a/vacation data.xlsx
+++ b/vacation data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\12 - Vacation Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D79A7-3418-4FC7-A3D4-57A347A07FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F291D7-5661-4E12-B007-84CDA85A6C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$221</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1204,7 +1207,7 @@
   <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>401769</v>
       </c>
       <c r="G9" s="1">
         <v>45740</v>
@@ -7973,6 +7976,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F221" xr:uid="{F2280DF4-3378-42B3-ACE4-D4403107E22A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vacation data.xlsx
+++ b/vacation data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\12 - Vacation Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F291D7-5661-4E12-B007-84CDA85A6C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9927C967-3A39-40EF-BFE6-50CCDB28C775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$221</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1204,10 +1204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1490,9 +1491,6 @@
       <c r="F9" s="1">
         <v>401769</v>
       </c>
-      <c r="G9" s="1">
-        <v>45740</v>
-      </c>
       <c r="H9" s="1">
         <v>45767</v>
       </c>
@@ -1503,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1599,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +1725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1823,7 +1821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1855,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1887,7 +1885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1919,7 +1917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1951,7 +1949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1977,7 +1975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2067,7 +2065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2259,7 +2257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2355,7 +2353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2419,7 +2417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2464,9 +2462,6 @@
       <c r="F40" s="1">
         <v>401769</v>
       </c>
-      <c r="G40" s="1">
-        <v>45839</v>
-      </c>
       <c r="H40" s="1">
         <v>45846</v>
       </c>
@@ -2477,7 +2472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -2567,7 +2562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2599,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2631,7 +2626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -2663,7 +2658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2695,7 +2690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2727,7 +2722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -2759,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -2791,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -2855,7 +2850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -2887,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -2919,7 +2914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -2951,7 +2946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -2983,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -3015,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -3079,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3105,7 +3100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -3131,7 +3126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -3157,7 +3152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -3183,7 +3178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -3209,7 +3204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -3273,7 +3268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -3305,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -3337,7 +3332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -3395,7 +3390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -3421,7 +3416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -3453,7 +3448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -3485,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -3517,7 +3512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -3549,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -3575,7 +3570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -3607,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -3665,7 +3660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -3723,7 +3718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -3755,7 +3750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -3787,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -3819,7 +3814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>122</v>
       </c>
@@ -3851,7 +3846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -3883,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -3915,7 +3910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -3979,7 +3974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -4011,7 +4006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -4037,7 +4032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -4069,7 +4064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -4127,7 +4122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -4159,7 +4154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -4191,7 +4186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>135</v>
       </c>
@@ -4223,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>136</v>
       </c>
@@ -4274,9 +4269,6 @@
       <c r="F99" s="1">
         <v>401769</v>
       </c>
-      <c r="G99" s="1">
-        <v>45911</v>
-      </c>
       <c r="H99" s="1">
         <v>45937</v>
       </c>
@@ -4287,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -4319,7 +4311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -4345,7 +4337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -4371,7 +4363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>140</v>
       </c>
@@ -4397,7 +4389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -4423,7 +4415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -4449,7 +4441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>140</v>
       </c>
@@ -4475,7 +4467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -4501,7 +4493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>146</v>
       </c>
@@ -4533,7 +4525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -4565,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -4591,7 +4583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -4623,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -4655,7 +4647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -4687,7 +4679,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>154</v>
       </c>
@@ -4713,7 +4705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>155</v>
       </c>
@@ -4745,7 +4737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>156</v>
       </c>
@@ -4771,7 +4763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>157</v>
       </c>
@@ -4803,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>158</v>
       </c>
@@ -4835,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>159</v>
       </c>
@@ -4867,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -4893,7 +4885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>162</v>
       </c>
@@ -4925,7 +4917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -4957,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>166</v>
       </c>
@@ -4989,7 +4981,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -5021,7 +5013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>171</v>
       </c>
@@ -5053,7 +5045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -5085,7 +5077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -5117,7 +5109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -5149,7 +5141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>173</v>
       </c>
@@ -5181,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -5213,7 +5205,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>177</v>
       </c>
@@ -5245,7 +5237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -5277,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -5309,7 +5301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -5341,7 +5333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -5373,7 +5365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -5405,7 +5397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -5437,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -5469,7 +5461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>185</v>
       </c>
@@ -5501,7 +5493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>187</v>
       </c>
@@ -5533,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>188</v>
       </c>
@@ -5565,7 +5557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>189</v>
       </c>
@@ -5591,7 +5583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>191</v>
       </c>
@@ -5617,7 +5609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>192</v>
       </c>
@@ -5643,7 +5635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>193</v>
       </c>
@@ -5669,7 +5661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>195</v>
       </c>
@@ -5695,7 +5687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>196</v>
       </c>
@@ -5721,7 +5713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>198</v>
       </c>
@@ -5747,7 +5739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>199</v>
       </c>
@@ -5773,7 +5765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>201</v>
       </c>
@@ -5799,7 +5791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>203</v>
       </c>
@@ -5825,7 +5817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>205</v>
       </c>
@@ -5851,7 +5843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>206</v>
       </c>
@@ -5877,7 +5869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>207</v>
       </c>
@@ -5903,7 +5895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>209</v>
       </c>
@@ -5929,7 +5921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>210</v>
       </c>
@@ -5955,7 +5947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -5981,7 +5973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>212</v>
       </c>
@@ -6007,7 +5999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>213</v>
       </c>
@@ -6033,7 +6025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>214</v>
       </c>
@@ -6059,7 +6051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>215</v>
       </c>
@@ -6085,7 +6077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>216</v>
       </c>
@@ -6117,7 +6109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -6149,7 +6141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>217</v>
       </c>
@@ -6181,7 +6173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>217</v>
       </c>
@@ -6213,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>220</v>
       </c>
@@ -6245,7 +6237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>221</v>
       </c>
@@ -6277,7 +6269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>222</v>
       </c>
@@ -6309,7 +6301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>224</v>
       </c>
@@ -6341,7 +6333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>224</v>
       </c>
@@ -6373,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>227</v>
       </c>
@@ -6405,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>230</v>
       </c>
@@ -6437,7 +6429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>230</v>
       </c>
@@ -6469,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>233</v>
       </c>
@@ -6501,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>234</v>
       </c>
@@ -6533,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>237</v>
       </c>
@@ -6565,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>240</v>
       </c>
@@ -6597,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>236</v>
       </c>
@@ -6629,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>243</v>
       </c>
@@ -6661,7 +6653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>244</v>
       </c>
@@ -6693,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>241</v>
       </c>
@@ -6725,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>246</v>
       </c>
@@ -6757,7 +6749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>246</v>
       </c>
@@ -6789,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>247</v>
       </c>
@@ -6821,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>248</v>
       </c>
@@ -6853,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>250</v>
       </c>
@@ -6885,7 +6877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>250</v>
       </c>
@@ -6917,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>253</v>
       </c>
@@ -6943,7 +6935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>255</v>
       </c>
@@ -6975,7 +6967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>257</v>
       </c>
@@ -7007,7 +6999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>257</v>
       </c>
@@ -7039,7 +7031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>259</v>
       </c>
@@ -7071,7 +7063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>259</v>
       </c>
@@ -7103,7 +7095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>260</v>
       </c>
@@ -7129,7 +7121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>261</v>
       </c>
@@ -7161,7 +7153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>261</v>
       </c>
@@ -7193,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>262</v>
       </c>
@@ -7219,7 +7211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>263</v>
       </c>
@@ -7251,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>264</v>
       </c>
@@ -7283,7 +7275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>264</v>
       </c>
@@ -7315,7 +7307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>265</v>
       </c>
@@ -7347,7 +7339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>267</v>
       </c>
@@ -7379,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>268</v>
       </c>
@@ -7411,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>270</v>
       </c>
@@ -7443,7 +7435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>270</v>
       </c>
@@ -7475,7 +7467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>270</v>
       </c>
@@ -7507,7 +7499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>271</v>
       </c>
@@ -7539,7 +7531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>272</v>
       </c>
@@ -7571,7 +7563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>272</v>
       </c>
@@ -7603,7 +7595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>273</v>
       </c>
@@ -7635,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>274</v>
       </c>
@@ -7667,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>275</v>
       </c>
@@ -7699,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>277</v>
       </c>
@@ -7725,7 +7717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>278</v>
       </c>
@@ -7751,7 +7743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>277</v>
       </c>
@@ -7783,7 +7775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>279</v>
       </c>
@@ -7815,7 +7807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>281</v>
       </c>
@@ -7847,7 +7839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>281</v>
       </c>
@@ -7879,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>282</v>
       </c>
@@ -7911,7 +7903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>282</v>
       </c>
@@ -7943,7 +7935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>284</v>
       </c>
@@ -7976,7 +7968,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F221" xr:uid="{F2280DF4-3378-42B3-ACE4-D4403107E22A}"/>
+  <autoFilter ref="F1:F221" xr:uid="{F2280DF4-3378-42B3-ACE4-D4403107E22A}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="3000" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>